--- a/medicine/Mort/Cimetière_national_de_Fort_Sam_Houston/Cimetière_national_de_Fort_Sam_Houston.xlsx
+++ b/medicine/Mort/Cimetière_national_de_Fort_Sam_Houston/Cimetière_national_de_Fort_Sam_Houston.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Fort_Sam_Houston</t>
+          <t>Cimetière_national_de_Fort_Sam_Houston</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière national de Fort Sam Houston (en anglais : Fort Sam Houston National Cemetery) est un cimetière national des États-Unis situé à San Antonio au Texas. Il est en lien avec le Fort Sam Houston.
 Administré par le Département des Anciens combattants des États-Unis, il compte plus de 170 000 tombes sur une superficie de 62,6 hectares.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Fort_Sam_Houston</t>
+          <t>Cimetière_national_de_Fort_Sam_Houston</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que le poste militaire de la région ait été établi en 1875 et que la construction du Fort Sam Houston ait commencé l'année suivante, aucun enterrement n'a eu lieu dans la zone qui constitue actuellement le cimetière jusqu'en 1926. En 1931, 60 acres (24 ha) ont été ajoutés au cimetière national de San Antonio. En 1937, l'ajout est devenu un cimetière national à part entière, rebaptisé Fort Sam Houston National Cemetery. En 1947, plusieurs autres forts du Texas, dont Fort McIntosh, ont été fermés et leurs cimetières ont été transférés au cimetière national de Fort Sam Houston.
 Au cimetière national de Fort Sam Houston sont enterrés 140 prisonniers de guerre de l'Axe de la Seconde Guerre mondiale qui sont morts en captivité. 133 sont allemands, 4 sont italiens et 3 sont japonais. Ces prisonniers de guerre ont été désincarcérés de divers camps de prisonniers de guerre du Texas et réinhumés au cimetière national de Fort Sam Houston. Parmi ces prisonniers de guerre se trouve Hugo Krauss, un Allemand assassiné par d'autres prisonniers de guerre allemands au camp Hearne en 1943. Lors de l'inhumation initiale, ces tombes étaient isolées des tombes américaines.
-Deux pierres tombales marquées de croix gammées (swastika) ont été remplacées le 24 décembre 2020. La Military Religious Freedom Foundation avait demandé leur enlèvement en mai 2020, mais la Veterans Administration (VA) s'y est opposée au motif qu'elles étaient historiques. L'administration des vétérans a résisté jusqu'à ce que le sénateur Ted Cruz (R-TX) et les membres du Congrès Will Hurd (R-TX23) et Kay Granger (R-TX12) fassent pression sur eux[1],[2].
+Deux pierres tombales marquées de croix gammées (swastika) ont été remplacées le 24 décembre 2020. La Military Religious Freedom Foundation avait demandé leur enlèvement en mai 2020, mais la Veterans Administration (VA) s'y est opposée au motif qu'elles étaient historiques. L'administration des vétérans a résisté jusqu'à ce que le sénateur Ted Cruz (R-TX) et les membres du Congrès Will Hurd (R-TX23) et Kay Granger (R-TX12) fassent pression sur eux,.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Fort_Sam_Houston</t>
+          <t>Cimetière_national_de_Fort_Sam_Houston</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Récipiendaires de la Medal of Honor
-Sergent-chef Lucian Adams, pour son action pendant la Seconde Guerre mondiale.
+          <t>Récipiendaires de la Medal of Honor</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sergent-chef Lucian Adams, pour son action pendant la Seconde Guerre mondiale.
 Sergent-chef Roy Benavidez, pour son action pendant la guerre du Viêt Nam.
 Colonel Cecil Hamilton Bolton, pour son action pendant la Seconde Guerre mondiale.
 Sergent-chef William J. Bordelon, pour son action lors de la bataille de Tarawa pendant la Seconde Guerre mondiale.
@@ -561,9 +580,43 @@
 First lieutenant James E. Robinson Jr. pour avoir participé à la Seconde Guerre mondiale.
 Adjudant-chef Louis R. Rocco, pour son action pendant la guerre du Viêt Nam.
 Sergent-chef Cleto Luna Rodriguez, pour son action pendant la Seconde Guerre mondiale.
-Colonel Seth Lathrop Weld, pour son action pendant la Guerre américano-philippine.
-Autres inhumations notables
-Colonel Charlie Beckwith, créateur du 1st Special Forces Operational Detachment-Delta (Delta Force).
+Colonel Seth Lathrop Weld, pour son action pendant la Guerre américano-philippine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_national_de_Fort_Sam_Houston</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_national_de_Fort_Sam_Houston</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pensionnaires notables</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres inhumations notables</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colonel Charlie Beckwith, créateur du 1st Special Forces Operational Detachment-Delta (Delta Force).
 Colonel Doc Blanchard, vainqueur du Heisman Trophy en 1945.
 Général de brigade Oscar Bergstrom Abbott, commandant général du Camp Beale pendant la Seconde Guerre mondiale.
 Général de brigade Bertram A. Bone, USMC ; commandant du 1st Defense Battalion pendant la Seconde Guerre mondiale.
